--- a/BOM/Bill of Materials-ISEPIC Cartridge for C64.xlsx
+++ b/BOM/Bill of Materials-ISEPIC Cartridge for C64.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elektronik\Altium\Projects\ICEPIC Cartridge for C64\Project Outputs for ISEPIC Cartridge for C64\BOM\2021-03-16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elektronik\Altium\Projects\ICEPIC Cartridge for C64\Project Outputs for ISEPIC Cartridge for C64\BOM\2021-04-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
   <si>
     <t>Project Full Path</t>
   </si>
@@ -106,7 +106,7 @@
     <t>pcs:</t>
   </si>
   <si>
-    <t>Bill of Materials for Project [ISEPIC Cartridge for C64.PrjPcb] (PCB Document : ICEPIC Cartridge for C64.PcbDoc)</t>
+    <t>Bill of Materials for Project [ISEPIC Cartridge for C64.PrjPcb] (PCB Document : ISEPIC Cartridge for C64.PcbDoc)</t>
   </si>
   <si>
     <t>ISEPIC Cartridge for C64.PrjPcb</t>
@@ -124,10 +124,10 @@
     <t>&lt;Parameter ClientContactEmail not found&gt;</t>
   </si>
   <si>
-    <t>16.03.2021</t>
-  </si>
-  <si>
-    <t>17:22</t>
+    <t>11.04.2021</t>
+  </si>
+  <si>
+    <t>19:25</t>
   </si>
   <si>
     <t>&lt;Parameter ClientWebsite not found&gt;</t>
@@ -154,6 +154,9 @@
     <t>Yageo</t>
   </si>
   <si>
+    <t>Vishay BCcomponents</t>
+  </si>
+  <si>
     <t>Texas Instruments</t>
   </si>
   <si>
@@ -172,6 +175,9 @@
     <t>CFR-25JB-52-1K</t>
   </si>
   <si>
+    <t>K102J15C0GF5TL2</t>
+  </si>
+  <si>
     <t>SN74LS02N</t>
   </si>
   <si>
@@ -193,6 +199,9 @@
     <t>Axial</t>
   </si>
   <si>
+    <t>Dipped</t>
+  </si>
+  <si>
     <t>PDIP</t>
   </si>
   <si>
@@ -211,6 +220,9 @@
     <t>RES 1K OHM 1/4W 5% AXIAL</t>
   </si>
   <si>
+    <t>CAP CER 1000PF 50V C0G/NP0 RAD</t>
+  </si>
+  <si>
     <t>IC GATE NOR 4CH 2-INP 14DIP</t>
   </si>
   <si>
@@ -271,7 +283,7 @@
     <t>22</t>
   </si>
   <si>
-    <t>16.03.2021 17:22</t>
+    <t>11.04.2021 19:25</t>
   </si>
   <si>
     <t>Bill of Materials</t>
@@ -1229,7 +1241,21 @@
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1657,7 +1683,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
@@ -1844,11 +1870,11 @@
       </c>
       <c r="D8" s="21">
         <f ca="1">TODAY()</f>
-        <v>44271</v>
+        <v>44297</v>
       </c>
       <c r="E8" s="22">
         <f ca="1">NOW()</f>
-        <v>44271.723750347221</v>
+        <v>44297.809295601852</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="20"/>
@@ -1873,37 +1899,37 @@
         <v>40</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L9" s="44" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M9" s="37" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N9" s="37" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O9" s="37" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1917,24 +1943,24 @@
         <v>41</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H10" s="30">
         <v>1</v>
       </c>
       <c r="I10" s="77" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J10" s="30">
         <v>2843940</v>
       </c>
       <c r="K10" s="41"/>
       <c r="L10" s="41">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="M10" s="85"/>
       <c r="N10" s="85"/>
@@ -1951,19 +1977,19 @@
         <v>42</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H11" s="32">
         <v>1</v>
       </c>
       <c r="I11" s="78" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J11" s="32">
         <v>140539</v>
@@ -1981,7 +2007,7 @@
         <v>0.05</v>
       </c>
       <c r="O11" s="69" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1995,10 +2021,10 @@
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
       <c r="G12" s="30" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H12" s="30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I12" s="77"/>
       <c r="J12" s="30"/>
@@ -2019,28 +2045,28 @@
         <v>43</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H13" s="32">
         <v>3</v>
       </c>
       <c r="I13" s="78" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K13" s="42">
         <v>3</v>
       </c>
       <c r="L13" s="42">
-        <v>231084</v>
+        <v>73698</v>
       </c>
       <c r="M13" s="86">
         <v>0.1</v>
@@ -2063,30 +2089,38 @@
         <v>44</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H14" s="30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I14" s="77" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="J14" s="30">
-        <v>1740022</v>
-      </c>
-      <c r="K14" s="41"/>
+        <v>2944280</v>
+      </c>
+      <c r="K14" s="41">
+        <v>1</v>
+      </c>
       <c r="L14" s="41">
         <v>0</v>
       </c>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="68"/>
+      <c r="M14" s="85">
+        <v>0.504</v>
+      </c>
+      <c r="N14" s="85">
+        <v>0.504</v>
+      </c>
+      <c r="O14" s="68" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="57"/>
@@ -2096,25 +2130,25 @@
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H15" s="32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15" s="78" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J15" s="32">
-        <v>1075980</v>
+        <v>1740022</v>
       </c>
       <c r="K15" s="42"/>
       <c r="L15" s="42">
@@ -2132,41 +2166,33 @@
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H16" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="77" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J16" s="30">
-        <v>1106076</v>
-      </c>
-      <c r="K16" s="41">
-        <v>1</v>
-      </c>
+        <v>1075980</v>
+      </c>
+      <c r="K16" s="41"/>
       <c r="L16" s="41">
         <v>0</v>
       </c>
-      <c r="M16" s="85">
-        <v>1.83</v>
-      </c>
-      <c r="N16" s="85">
-        <v>1.83</v>
-      </c>
-      <c r="O16" s="68" t="s">
-        <v>80</v>
-      </c>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="68"/>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="57"/>
@@ -2179,101 +2205,117 @@
         <v>45</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="32"/>
+        <v>54</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>60</v>
+      </c>
       <c r="G17" s="32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H17" s="32">
         <v>1</v>
       </c>
-      <c r="I17" s="78"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="42"/>
+      <c r="I17" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="32">
+        <v>1106076</v>
+      </c>
+      <c r="K17" s="42">
+        <v>1</v>
+      </c>
       <c r="L17" s="42">
         <v>0</v>
       </c>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="69"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M17" s="86">
+        <v>1.83</v>
+      </c>
+      <c r="N17" s="86">
+        <v>1.83</v>
+      </c>
+      <c r="O17" s="69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="57"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="48">
-        <f>SUM(H10:H17)</f>
+      <c r="B18" s="29">
+        <f>ROW(B18) - ROW($B$9)</f>
+        <v>9</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="30">
+        <v>1</v>
+      </c>
+      <c r="I18" s="77"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41">
+        <v>0</v>
+      </c>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="68"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="57"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="48">
+        <f>SUM(H10:H18)</f>
         <v>22</v>
       </c>
-      <c r="I18" s="79"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="48">
-        <f>SUM(K10:K17)</f>
-        <v>5</v>
-      </c>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47">
-        <f>SUM(N10:N17)</f>
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="O18" s="70"/>
-    </row>
-    <row r="19" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="57"/>
-      <c r="B19" s="87" t="s">
+      <c r="I19" s="79"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="48">
+        <f>SUM(K10:K18)</f>
+        <v>6</v>
+      </c>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47">
+        <f>SUM(N10:N18)</f>
+        <v>2.6840000000000002</v>
+      </c>
+      <c r="O19" s="70"/>
+    </row>
+    <row r="20" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="57"/>
+      <c r="B20" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="87"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="51" t="s">
+      <c r="C20" s="87"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="67"/>
-    </row>
-    <row r="20" spans="1:15" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="57"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="46" t="s">
-        <v>23</v>
-      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="39"/>
       <c r="K20" s="39"/>
-      <c r="L20" s="88">
-        <f>N18</f>
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="M20" s="89"/>
-      <c r="N20" s="97" t="s">
-        <v>38</v>
-      </c>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
       <c r="O20" s="67"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="57"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2281,43 +2323,66 @@
       <c r="E21" s="8"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="50" t="s">
+      <c r="H21" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="39"/>
+      <c r="L21" s="88">
+        <f>N19</f>
+        <v>2.6840000000000002</v>
+      </c>
+      <c r="M21" s="89"/>
+      <c r="N21" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" s="67"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="57"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="90">
-        <f>L20/H20</f>
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="M21" s="90"/>
-      <c r="N21" s="98" t="s">
+      <c r="K22" s="6"/>
+      <c r="L22" s="90">
+        <f>L21/H21</f>
+        <v>2.6840000000000002</v>
+      </c>
+      <c r="M22" s="90"/>
+      <c r="N22" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="O21" s="67"/>
-    </row>
-    <row r="22" spans="1:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="60"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="71"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="O22" s="67"/>
+    </row>
+    <row r="23" spans="1:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="60"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="71"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
@@ -2329,51 +2394,66 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="L10:L11">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:N11">
-    <cfRule type="containsBlanks" dxfId="6" priority="8">
+    <cfRule type="containsBlanks" dxfId="8" priority="10">
       <formula>LEN(TRIM(N10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L13">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12:N13">
+    <cfRule type="containsBlanks" dxfId="6" priority="7">
+      <formula>LEN(TRIM(N12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:L15">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N12:N13">
+  <conditionalFormatting sqref="N14:N15">
     <cfRule type="containsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(N12))=0</formula>
+      <formula>LEN(TRIM(N14))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:L15">
+  <conditionalFormatting sqref="L16:L17">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14:N15">
+  <conditionalFormatting sqref="N16:N17">
     <cfRule type="containsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(N14))=0</formula>
+      <formula>LEN(TRIM(N16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16:L17">
+  <conditionalFormatting sqref="L18">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N16:N17">
+  <conditionalFormatting sqref="N18">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(N16))=0</formula>
+      <formula>LEN(TRIM(N18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.47244094488188981" right="0.35433070866141736" top="0.59055118110236227" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2404,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="99" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="13" x14ac:dyDescent="0.25">
@@ -2436,7 +2516,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="101" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13" x14ac:dyDescent="0.25">
@@ -2452,7 +2532,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="101" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13" x14ac:dyDescent="0.25">
@@ -2476,7 +2556,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13" x14ac:dyDescent="0.25">
@@ -2484,7 +2564,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="101" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="13" x14ac:dyDescent="0.25">
@@ -2492,7 +2572,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="100" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13" x14ac:dyDescent="0.25">
@@ -2500,7 +2580,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="101" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="13" x14ac:dyDescent="0.25">
@@ -2508,7 +2588,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="100" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
